--- a/sensorCSV/SAG1_sensor_data_with_decimal_filtered_updated02.xlsx
+++ b/sensorCSV/SAG1_sensor_data_with_decimal_filtered_updated02.xlsx
@@ -3834,7 +3834,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45725.28379443287</v>
+        <v>45725.2840490625</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -3871,7 +3871,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45725.28381615741</v>
+        <v>45725.28407078703</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -3908,7 +3908,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45725.28383988426</v>
+        <v>45725.28409451389</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45725.78393704861</v>
+        <v>45725.78419167824</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45725.78395944444</v>
+        <v>45725.78421407408</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45725.78398240741</v>
+        <v>45725.78423703703</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45726.2840793287</v>
+        <v>45726.28433395833</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45726.28410148148</v>
+        <v>45726.28435611111</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45726.28412525463</v>
+        <v>45726.28437988426</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45726.78422107639</v>
+        <v>45726.78447570602</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45726.7842433912</v>
+        <v>45726.78449802083</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45726.78426665509</v>
+        <v>45726.78452128472</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45727.28436325231</v>
+        <v>45727.28461788195</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -4315,7 +4315,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45727.28438563657</v>
+        <v>45727.2846402662</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45727.28440849537</v>
+        <v>45727.284663125</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45727.78450625</v>
+        <v>45727.78476087963</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45727.78452762731</v>
+        <v>45727.78478225695</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45727.78455077546</v>
+        <v>45727.78480540509</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -4500,7 +4500,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45728.28464791667</v>
+        <v>45728.28490254629</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45728.28466966435</v>
+        <v>45728.28492429398</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45728.2846928125</v>
+        <v>45728.28494744213</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -4611,7 +4611,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45728.32236603009</v>
+        <v>45728.32262065972</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45728.32238929398</v>
+        <v>45728.32264392361</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45728.32241254629</v>
+        <v>45728.32266717593</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -4722,7 +4722,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45728.82251016203</v>
+        <v>45728.82276479166</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45728.8225322338</v>
+        <v>45728.82278686343</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45728.82255538194</v>
+        <v>45728.82281001157</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45729.32265225695</v>
+        <v>45729.32290688658</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45729.32267420139</v>
+        <v>45729.32292883102</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45729.32269775463</v>
+        <v>45729.32295238426</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>

--- a/sensorCSV/SAG1_sensor_data_with_decimal_filtered_updated02.xlsx
+++ b/sensorCSV/SAG1_sensor_data_with_decimal_filtered_updated02.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1483,6 +1483,117 @@
         <v>400</v>
       </c>
       <c r="I28" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45729.73239443287</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>400</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H29" t="n">
+        <v>400</v>
+      </c>
+      <c r="I29" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45729.73241640046</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>400</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H30" t="n">
+        <v>400</v>
+      </c>
+      <c r="I30" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45729.73243972223</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x14,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0xd</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>400</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H31" t="n">
+        <v>400</v>
+      </c>
+      <c r="I31" t="n">
         <v>13</v>
       </c>
     </row>
@@ -1497,7 +1608,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2552,10 +2663,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2025-03-13 13:55:35</t>
-        </is>
+      <c r="A29" s="2" t="n">
+        <v>45729.58037369213</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2587,6 +2696,119 @@
         <v>390</v>
       </c>
       <c r="I29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45729.58039555555</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>400</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H30" t="n">
+        <v>390</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45729.58041870371</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>400</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H31" t="n">
+        <v>390</v>
+      </c>
+      <c r="I31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-03-14 01:55:48</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0x01,0x86,</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0x4</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>400</v>
+      </c>
+      <c r="G32" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H32" t="n">
+        <v>390</v>
+      </c>
+      <c r="I32" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2601,7 +2823,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3763,6 +3985,45 @@
         <v>400</v>
       </c>
       <c r="I31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-03-13 18:26:04</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>400</v>
+      </c>
+      <c r="G32" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H32" t="n">
+        <v>400</v>
+      </c>
+      <c r="I32" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3777,7 +4038,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3834,7 +4095,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45725.2840490625</v>
+        <v>45725.28336619213</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -3871,7 +4132,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45725.28407078703</v>
+        <v>45725.28338791666</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -3908,7 +4169,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45725.28409451389</v>
+        <v>45725.28341164352</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -3945,7 +4206,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45725.78419167824</v>
+        <v>45725.78350880787</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -3982,7 +4243,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45725.78421407408</v>
+        <v>45725.78353120371</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -4019,7 +4280,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45725.78423703703</v>
+        <v>45725.78355416666</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -4056,7 +4317,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45726.28433395833</v>
+        <v>45726.28365108796</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -4093,7 +4354,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45726.28435611111</v>
+        <v>45726.28367324074</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -4130,7 +4391,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45726.28437988426</v>
+        <v>45726.28369701389</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -4167,7 +4428,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45726.78447570602</v>
+        <v>45726.78379283565</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -4204,7 +4465,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45726.78449802083</v>
+        <v>45726.78381515046</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -4241,7 +4502,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45726.78452128472</v>
+        <v>45726.78383841435</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -4278,7 +4539,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45727.28461788195</v>
+        <v>45727.28393501158</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -4315,7 +4576,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45727.2846402662</v>
+        <v>45727.28395739583</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -4352,7 +4613,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45727.284663125</v>
+        <v>45727.28398025463</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -4389,7 +4650,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45727.78476087963</v>
+        <v>45727.78407800926</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -4426,7 +4687,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45727.78478225695</v>
+        <v>45727.78409938658</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -4463,7 +4724,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45727.78480540509</v>
+        <v>45727.78412253472</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -4500,7 +4761,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45728.28490254629</v>
+        <v>45728.28421967592</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -4537,7 +4798,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45728.28492429398</v>
+        <v>45728.28424142361</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -4574,7 +4835,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45728.28494744213</v>
+        <v>45728.28426457176</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -4611,7 +4872,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45728.32262065972</v>
+        <v>45728.32193778935</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -4648,7 +4909,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45728.32264392361</v>
+        <v>45728.32196105324</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -4685,7 +4946,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45728.32266717593</v>
+        <v>45728.32198430556</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -4722,7 +4983,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45728.82276479166</v>
+        <v>45728.82208192129</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -4759,7 +5020,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45728.82278686343</v>
+        <v>45728.82210399306</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -4796,7 +5057,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45728.82281001157</v>
+        <v>45728.8221271412</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -4833,7 +5094,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45729.32290688658</v>
+        <v>45729.32222401621</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -4870,7 +5131,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45729.32292883102</v>
+        <v>45729.32224596065</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -4907,7 +5168,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45729.32295238426</v>
+        <v>45729.32226951389</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -4939,6 +5200,43 @@
         <v>400</v>
       </c>
       <c r="I31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45729.82226851852</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>400</v>
+      </c>
+      <c r="G32" t="n">
+        <v>9.850463339847761e+23</v>
+      </c>
+      <c r="H32" t="n">
+        <v>400</v>
+      </c>
+      <c r="I32" t="n">
         <v>3</v>
       </c>
     </row>

--- a/sensorCSV/SAG1_sensor_data_with_decimal_filtered_updated02.xlsx
+++ b/sensorCSV/SAG1_sensor_data_with_decimal_filtered_updated02.xlsx
@@ -1608,7 +1608,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2770,45 +2770,6 @@
         <v>390</v>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2025-03-14 01:55:48</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>0x01,0x90</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0x01,0x86,</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0x4</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>400</v>
-      </c>
-      <c r="G32" t="n">
-        <v>5.686312626471138e+23</v>
-      </c>
-      <c r="H32" t="n">
-        <v>390</v>
-      </c>
-      <c r="I32" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2823,7 +2784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3989,10 +3950,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2025-03-13 18:26:04</t>
-        </is>
+      <c r="A32" s="2" t="n">
+        <v>45729.76820116898</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -4024,6 +3983,80 @@
         <v>400</v>
       </c>
       <c r="I32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45729.7682231713</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>400</v>
+      </c>
+      <c r="G33" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H33" t="n">
+        <v>400</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45729.76824641204</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x0b,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>400</v>
+      </c>
+      <c r="G34" t="n">
+        <v>5.686312626471138e+23</v>
+      </c>
+      <c r="H34" t="n">
+        <v>400</v>
+      </c>
+      <c r="I34" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4038,7 +4071,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4095,7 +4128,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45725.28336619213</v>
+        <v>45725.28396804398</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -4132,7 +4165,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45725.28338791666</v>
+        <v>45725.28398976852</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -4169,7 +4202,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45725.28341164352</v>
+        <v>45725.28401349537</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -4206,7 +4239,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45725.78350880787</v>
+        <v>45725.78411065972</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -4243,7 +4276,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45725.78353120371</v>
+        <v>45725.78413305555</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -4280,7 +4313,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45725.78355416666</v>
+        <v>45725.78415601852</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -4317,7 +4350,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45726.28365108796</v>
+        <v>45726.28425293981</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -4354,7 +4387,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45726.28367324074</v>
+        <v>45726.28427509259</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -4391,7 +4424,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45726.28369701389</v>
+        <v>45726.28429886574</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -4428,7 +4461,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45726.78379283565</v>
+        <v>45726.7843946875</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -4465,7 +4498,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45726.78381515046</v>
+        <v>45726.78441700232</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -4502,7 +4535,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45726.78383841435</v>
+        <v>45726.7844402662</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -4539,7 +4572,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45727.28393501158</v>
+        <v>45727.28453686342</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -4576,7 +4609,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45727.28395739583</v>
+        <v>45727.28455924769</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -4613,7 +4646,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45727.28398025463</v>
+        <v>45727.28458210648</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -4650,7 +4683,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45727.78407800926</v>
+        <v>45727.78467986111</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -4687,7 +4720,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45727.78409938658</v>
+        <v>45727.78470123842</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -4724,7 +4757,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45727.78412253472</v>
+        <v>45727.78472438658</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -4761,7 +4794,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45728.28421967592</v>
+        <v>45728.28482152778</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -4798,7 +4831,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45728.28424142361</v>
+        <v>45728.28484327546</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -4835,7 +4868,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45728.28426457176</v>
+        <v>45728.28486642361</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -4872,7 +4905,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45728.32193778935</v>
+        <v>45728.3225396412</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -4909,7 +4942,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45728.32196105324</v>
+        <v>45728.32256290509</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -4946,7 +4979,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45728.32198430556</v>
+        <v>45728.32258615741</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -4983,7 +5016,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45728.82208192129</v>
+        <v>45728.82268377315</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -5020,7 +5053,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45728.82210399306</v>
+        <v>45728.8227058449</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -5057,7 +5090,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45728.8221271412</v>
+        <v>45728.82272899306</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -5094,7 +5127,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45729.32222401621</v>
+        <v>45729.32282586805</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -5131,7 +5164,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45729.32224596065</v>
+        <v>45729.3228478125</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -5168,7 +5201,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45729.32226951389</v>
+        <v>45729.32287136574</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -5205,7 +5238,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45729.82226851852</v>
+        <v>45729.8229696875</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -5237,6 +5270,80 @@
         <v>400</v>
       </c>
       <c r="I32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45729.82299168981</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>400</v>
+      </c>
+      <c r="G33" t="n">
+        <v>9.850463339847761e+23</v>
+      </c>
+      <c r="H33" t="n">
+        <v>400</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45729.82301493055</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0xd0,0x97,0x78,0x01,0x00,0x00,0x0e,0x3f,0x0c,0x0c,</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0x01,0x90,</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0x3</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>400</v>
+      </c>
+      <c r="G34" t="n">
+        <v>9.850463339847761e+23</v>
+      </c>
+      <c r="H34" t="n">
+        <v>400</v>
+      </c>
+      <c r="I34" t="n">
         <v>3</v>
       </c>
     </row>
